--- a/templates/報名表.xlsx
+++ b/templates/報名表.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljchen/Desktop/Study/sport/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D34C83-CBBE-2244-9227-A57FA40166B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE72181C-8400-F04E-983E-441A69421F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="報名表資料" sheetId="1" r:id="rId1"/>
+    <sheet name="報名表照片" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>背號</t>
   </si>
@@ -66,6 +67,93 @@
   </si>
   <si>
     <t>隊長：</t>
+  </si>
+  <si>
+    <t>附件二：報名表照片</t>
+  </si>
+  <si>
+    <t>1.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.姓名：</t>
+  </si>
+  <si>
+    <t>3.姓名：</t>
+  </si>
+  <si>
+    <t>4.姓名：</t>
+  </si>
+  <si>
+    <t>5.姓名：</t>
+  </si>
+  <si>
+    <t>6.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.姓名：</t>
+  </si>
+  <si>
+    <t>8.姓名：</t>
+  </si>
+  <si>
+    <t>9.姓名：</t>
+  </si>
+  <si>
+    <t>10.姓名：</t>
+  </si>
+  <si>
+    <t>11.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.姓名：</t>
+  </si>
+  <si>
+    <t>13.姓名：</t>
+  </si>
+  <si>
+    <t>14.姓名：</t>
+  </si>
+  <si>
+    <t>15.姓名：</t>
+  </si>
+  <si>
+    <t>16.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.姓名：</t>
+  </si>
+  <si>
+    <t>18.姓名：</t>
+  </si>
+  <si>
+    <t>19.姓名：</t>
+  </si>
+  <si>
+    <t>20.姓名：</t>
+  </si>
+  <si>
+    <t>21.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.姓名：</t>
+  </si>
+  <si>
+    <t>23.姓名：</t>
+  </si>
+  <si>
+    <t>24.姓名：</t>
+  </si>
+  <si>
+    <t>25.姓名：</t>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -75,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +189,26 @@
       <sz val="14"/>
       <name val="KaiTi"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BiauKai"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="KaiTi"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +268,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +592,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -524,7 +650,9 @@
       <c r="G5" s="7"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -828,4 +956,194 @@
 蓋 章</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F800AAF-5297-4E4E-9FA8-D9DC9261DBEE}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="5" width="19.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="23" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="91" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="15">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="91" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="15">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="91" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="15">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="91" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="15">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="91" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15">
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/templates/報名表.xlsx
+++ b/templates/報名表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljchen/Desktop/Study/sport/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE72181C-8400-F04E-983E-441A69421F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C44C46-007F-004A-BAC3-5945C297C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="報名表資料" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>背號</t>
   </si>
@@ -53,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備用手機：</t>
-  </si>
-  <si>
     <t>電子郵件：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,90 +66,103 @@
     <t>隊長：</t>
   </si>
   <si>
+    <t>1.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.姓名：</t>
+  </si>
+  <si>
+    <t>3.姓名：</t>
+  </si>
+  <si>
+    <t>4.姓名：</t>
+  </si>
+  <si>
+    <t>5.姓名：</t>
+  </si>
+  <si>
+    <t>6.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.姓名：</t>
+  </si>
+  <si>
+    <t>8.姓名：</t>
+  </si>
+  <si>
+    <t>9.姓名：</t>
+  </si>
+  <si>
+    <t>10.姓名：</t>
+  </si>
+  <si>
+    <t>11.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.姓名：</t>
+  </si>
+  <si>
+    <t>13.姓名：</t>
+  </si>
+  <si>
+    <t>14.姓名：</t>
+  </si>
+  <si>
+    <t>15.姓名：</t>
+  </si>
+  <si>
+    <t>16.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.姓名：</t>
+  </si>
+  <si>
+    <t>18.姓名：</t>
+  </si>
+  <si>
+    <t>19.姓名：</t>
+  </si>
+  <si>
+    <t>20.姓名：</t>
+  </si>
+  <si>
+    <t>21.姓名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.姓名：</t>
+  </si>
+  <si>
+    <t>23.姓名：</t>
+  </si>
+  <si>
+    <t>24.姓名：</t>
+  </si>
+  <si>
+    <t>25.姓名：</t>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE ID：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報名組別：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件一：報名表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>附件二：報名表照片</t>
-  </si>
-  <si>
-    <t>1.姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.姓名：</t>
-  </si>
-  <si>
-    <t>3.姓名：</t>
-  </si>
-  <si>
-    <t>4.姓名：</t>
-  </si>
-  <si>
-    <t>5.姓名：</t>
-  </si>
-  <si>
-    <t>6.姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.姓名：</t>
-  </si>
-  <si>
-    <t>8.姓名：</t>
-  </si>
-  <si>
-    <t>9.姓名：</t>
-  </si>
-  <si>
-    <t>10.姓名：</t>
-  </si>
-  <si>
-    <t>11.姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.姓名：</t>
-  </si>
-  <si>
-    <t>13.姓名：</t>
-  </si>
-  <si>
-    <t>14.姓名：</t>
-  </si>
-  <si>
-    <t>15.姓名：</t>
-  </si>
-  <si>
-    <t>16.姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.姓名：</t>
-  </si>
-  <si>
-    <t>18.姓名：</t>
-  </si>
-  <si>
-    <t>19.姓名：</t>
-  </si>
-  <si>
-    <t>20.姓名：</t>
-  </si>
-  <si>
-    <t>21.姓名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.姓名：</t>
-  </si>
-  <si>
-    <t>23.姓名：</t>
-  </si>
-  <si>
-    <t>24.姓名：</t>
-  </si>
-  <si>
-    <t>25.姓名：</t>
-  </si>
-  <si>
-    <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,13 +201,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="BiauKai"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="KaiTi"/>
@@ -209,6 +212,12 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="KaiTi"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,15 +278,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -287,6 +295,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -589,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -607,96 +617,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="7"/>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="7"/>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7"/>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -707,7 +706,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -718,29 +717,29 @@
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -751,7 +750,7 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -762,7 +761,7 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -773,7 +772,7 @@
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -784,7 +783,7 @@
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -795,7 +794,7 @@
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -806,7 +805,7 @@
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -817,7 +816,7 @@
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -828,7 +827,7 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -839,7 +838,7 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A23" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -850,7 +849,7 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A24" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -861,7 +860,7 @@
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A25" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -872,7 +871,7 @@
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A26" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -883,7 +882,7 @@
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -894,7 +893,7 @@
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -905,7 +904,7 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A29" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -916,7 +915,7 @@
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A30" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -927,7 +926,7 @@
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A31" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -938,7 +937,7 @@
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A32" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -946,6 +945,28 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="A33" s="4">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="A34" s="4">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -960,10 +981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F800AAF-5297-4E4E-9FA8-D9DC9261DBEE}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -972,178 +993,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17">
-      <c r="C1" s="8" t="s">
-        <v>14</v>
+      <c r="C1" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="7"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="23" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:7" ht="23" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="91" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="15">
-      <c r="A7" s="11" t="s">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="91" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1" ht="15">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="91" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="15">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="91" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="15">
-      <c r="A9" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="91" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="15">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="91" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="15">
-      <c r="A11" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="91" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="15">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="91" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="15">
-      <c r="A13" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="91" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="15">
+      <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="91" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15">
-      <c r="A15" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/templates/報名表.xlsx
+++ b/templates/報名表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C44C46-007F-004A-BAC3-5945C297C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E83B2-97AD-2844-983E-55800F152C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="報名表資料" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>背號</t>
   </si>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>附件二：報名表照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教職員</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -614,17 +618,18 @@
     <col min="5" max="5" width="16.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -634,7 +639,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -644,19 +649,19 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +675,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -692,8 +697,11 @@
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -703,8 +711,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -714,8 +723,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -725,8 +735,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -736,8 +747,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -747,8 +759,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -758,8 +771,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -769,8 +783,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -780,8 +795,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -791,8 +807,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -802,8 +819,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -813,8 +831,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -824,8 +843,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="4">
         <v>13</v>
       </c>
@@ -835,8 +855,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -846,8 +867,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -857,8 +879,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -868,8 +891,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -879,8 +903,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -890,8 +915,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -901,8 +927,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -912,8 +939,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -923,8 +951,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -934,8 +963,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -945,8 +975,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -956,8 +987,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -967,10 +999,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.45" right="0.45" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"楷體-簡 標準體,標準"＊本資料僅提供賽事資格證明&amp;C&amp;"楷體-簡 標準體,標準"系 所
@@ -983,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F800AAF-5297-4E4E-9FA8-D9DC9261DBEE}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/templates/報名表.xlsx
+++ b/templates/報名表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E83B2-97AD-2844-983E-55800F152C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF207F-9463-2B48-9279-01A0D4254AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.45" right="0.45" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.2" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"楷體-簡 標準體,標準"＊本資料僅提供賽事資格證明&amp;C&amp;"楷體-簡 標準體,標準"系 所

--- a/templates/報名表.xlsx
+++ b/templates/報名表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF207F-9463-2B48-9279-01A0D4254AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5703137-5BC7-AE4B-9C57-5D97CCCDFA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.2" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"楷體-簡 標準體,標準"＊本資料僅提供賽事資格證明&amp;C&amp;"楷體-簡 標準體,標準"系 所
